--- a/Python/Webcam Record Excel/recordings/07 Straight Line (with Desired).xlsx
+++ b/Python/Webcam Record Excel/recordings/07 Straight Line (with Desired).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\TrajectoryTracking\Python\Webcam Record Excel\recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A0B36-1460-41E8-9BE6-6EAA0038F0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291727D3-903B-4065-A4A5-90B2DA3FD59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16218,9 +16218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>603849</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43131</xdr:rowOff>
+      <xdr:colOff>577970</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16538,7 +16538,7 @@
   <dimension ref="A1:G369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
